--- a/docu/tmp/TestExperiment6.xlsx
+++ b/docu/tmp/TestExperiment6.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CFE8B2-58D2-4601-9B8F-0AF31E4ACD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90C2400-31A3-4E44-87F2-7FCEC2F8319D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="1515" windowWidth="16155" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7695" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -762,7 +762,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1042,16 +1042,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1112,8 +1112,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>0</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>21.370999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>6</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>18.914999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>12</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>20</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>22</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>24</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>26</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>28</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>30</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>32</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>34</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>36</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>38</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>40</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>45</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>50</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>55</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>60</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>65</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>70</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>75</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>80</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>85</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>90</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>105</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>120</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>135</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>150</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>165</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9">
         <v>180</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
